--- a/medicine/Mort/Liste_des_cimetières_de_Florence/Liste_des_cimetières_de_Florence.xlsx
+++ b/medicine/Mort/Liste_des_cimetières_de_Florence/Liste_des_cimetières_de_Florence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Florence</t>
+          <t>Liste_des_cimetières_de_Florence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page liste les principaux cimetières de Florence, capitale de la Toscane (Italie).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Florence</t>
+          <t>Liste_des_cimetières_de_Florence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Monumentaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cimitero di Trespiano
 Cimetière des Portes Saintes de San Miniato al Monte
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Florence</t>
+          <t>Liste_des_cimetières_de_Florence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Autres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cimitero di Soffiano : du quartier de Soffiano, dans l'ouest de la ville.
 Cimetière des Allori Cimitero degli Allori : du quartier de Galluzzo.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Florence</t>
+          <t>Liste_des_cimetières_de_Florence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>À noter</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bâtiments religieux de la ville recèlent des sépultures et des cénotaphes des grands personnages historiques depuis le Moyen Âge.
  Portail de l’architecture et de l’urbanisme   Portail sur la mort   Portail de Florence                   </t>
